--- a/biology/Zoologie/Evenus_sponsa/Evenus_sponsa.xlsx
+++ b/biology/Zoologie/Evenus_sponsa/Evenus_sponsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus sponsa est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus sponsa a été décrit par Heinrich Benno Möschler en 1877, sous le nom initial de Thecla sponsa.
-Synonymes: Thecla ornatrix Druce, 1907; Poetukulunma sponsa, Brévignon, 2002[1].
-Noms vernaculaires
-Evenus sponsa se nomme Sponsa Hairstreak en anglais[2].
+Synonymes: Thecla ornatrix Druce, 1907; Poetukulunma sponsa, Brévignon, 2002.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evenus sponsa se nomme Sponsa Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evenus_sponsa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evenus_sponsa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus sponsa est un petit papillon aux antennes et aux pattes annelées de blanc et de marron, avec deux fines queues à chaque aile postérieure, dont une très longue.
 Le dessus est bleu clair métallisé finement bordé de marron avec aux ailes antérieures une plage centrale violette et aux ailes postérieures deux ocelle marron très proches dont un anal.
@@ -554,36 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Evenus_sponsa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Evenus_sponsa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +629,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evenus sponsa est présent au Surinam, en Guyana et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evenus sponsa est présent au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Evenus_sponsa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evenus_sponsa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Evenus sponsa, sur Wikimedia CommonsEvenus sponsa, sur Wikispecies
 </t>
